--- a/Users.xlsx
+++ b/Users.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +19,6 @@
   <fonts count="1">
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -50,9 +48,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -125,9 +123,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="New Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,104 +133,46 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -240,74 +180,80 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -337,73 +283,49 @@
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -413,13 +335,241 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>12332</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Fuck Pasha</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>12332</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fuck Pasha</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12332</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fuck Pasha</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12332</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fuck Pasha</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>12332</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fuck Pasha</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12332</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fuck Pasha</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12332</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fuck Pasha</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12332</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fuck Pasha</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>['Python','Html']</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.7007874015748032" right="0.7007874015748032" top="0.7519685039370079" bottom="0.7519685039370079" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="4294967295" useFirstPageNumber="0" pageOrder="downThenOver" usePrinterDefaults="1" blackAndWhite="0" draft="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
--- a/Users.xlsx
+++ b/Users.xlsx
@@ -332,10 +332,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -370,7 +370,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12332</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="3">
@@ -403,7 +403,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12332</v>
+        <v>1231532</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12332</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
@@ -469,7 +469,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12332</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12332</v>
+        <v>33</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12332</v>
+        <v>333</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -567,9 +567,34 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1578</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pidor</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['Web','SCSS','DevOps']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['Web','SCSS','DevOps']</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>['Web','SCSS','DevOps']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.7007874015748032" right="0.7007874015748032" top="0.7519685039370079" bottom="0.7519685039370079" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="4294967295" useFirstPageNumber="0" pageOrder="downThenOver" usePrinterDefaults="1" blackAndWhite="0" draft="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="2147483648" useFirstPageNumber="0" pageOrder="downThenOver" usePrinterDefaults="1" blackAndWhite="0" draft="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>